--- a/output/CodeSystem-lk-core-province-cs.xlsx
+++ b/output/CodeSystem-lk-core-province-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-11T10:37:20+05:30</t>
+    <t>2023-08-14T13:12:37+05:30</t>
   </si>
   <si>
     <t>Publisher</t>
